--- a/sounds_data.xlsx
+++ b/sounds_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="61">
   <si>
     <t>Timestamp</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Barbados</t>
   </si>
 </sst>
 </file>
@@ -5345,6 +5348,326 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>43842.59201208333</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T62" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V62" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>43843.50969178241</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T63" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>43843.54918155093</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V64" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>43844.4734140162</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V65" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X65" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
